--- a/biology/Zoologie/Echinoneidae/Echinoneidae.xlsx
+++ b/biology/Zoologie/Echinoneidae/Echinoneidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinoneidae constituent une famille d'oursins irréguliers, la seule encore existante de l'ordre des Echinoneoida.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Echinoneidae sont des oursins irréguliers : leur test (coquille) subsphérique est de forme légèrement ovale, la bouche (« péristome ») est située au centre de la face orale (inférieure) et l'anus (« périprocte »), très élargi, à mi-chemin entre celle-ci et la marge de la face orale (formant un axe antéro-postérieur et donc une symétrie biradiale), alors que les 4 orifices génitaux et le madréporite sont situés à l'apex, au sommet de la face aborale. Les ambulacres s'affinent vers le péristome, sans expansion des paires de pores[2].
-Cette famille semble être apparue à l'Éocène[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Echinoneidae sont des oursins irréguliers : leur test (coquille) subsphérique est de forme légèrement ovale, la bouche (« péristome ») est située au centre de la face orale (inférieure) et l'anus (« périprocte »), très élargi, à mi-chemin entre celle-ci et la marge de la face orale (formant un axe antéro-postérieur et donc une symétrie biradiale), alors que les 4 orifices génitaux et le madréporite sont situés à l'apex, au sommet de la face aborale. Les ambulacres s'affinent vers le péristome, sans expansion des paires de pores.
+Cette famille semble être apparue à l'Éocène.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (6 juin 2014)[3], cette famille comporte 3 espèces vivantes et 11 fossiles, réparties en 6 genres :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (6 juin 2014), cette famille comporte 3 espèces vivantes et 11 fossiles, réparties en 6 genres :
 genre Amblypygus L. Agassiz, 1840a † -- 4 espèces fossiles
 genre Duperieria Roman, 1968 † -- 1 espèce fossile
 genre Echinoneus Leske, 1778 -- 1 espèce vivante, 5 fossiles (périprocte droit, péristome oblique)
